--- a/data/MarriageRelationships.xlsx
+++ b/data/MarriageRelationships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\margars\Downloads\Documents\GitHub\submissionstrategies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905B9FAB-23AE-4ABC-9A5C-16C798649B2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851303E3-9684-41AB-AF68-A0941888DBC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7670" xr2:uid="{4FADB3C0-2042-4CF8-B92D-07E4B9D89DE5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="327">
   <si>
     <t>Relationship</t>
   </si>
@@ -1357,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ED9CE9E-E9E4-4A83-86A2-C1DAA669B586}">
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1587,27 +1587,27 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
         <v>14</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1618,30 +1618,30 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1652,30 +1652,30 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1686,13 +1686,13 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1703,30 +1703,30 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1737,30 +1737,30 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1771,30 +1771,30 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1805,30 +1805,30 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E26">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1839,30 +1839,30 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1873,30 +1873,30 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1907,30 +1907,30 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E33">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1941,30 +1941,30 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E34">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E35">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1975,30 +1975,30 @@
         <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B37">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E37">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2009,30 +2009,30 @@
         <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E38">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E39">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2043,30 +2043,30 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E40">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2077,24 +2077,24 @@
         <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E42">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B43">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
@@ -2111,27 +2111,27 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B45">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>60</v>
@@ -2145,30 +2145,30 @@
         <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B47">
-        <v>164</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E47">
-        <v>165</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2179,30 +2179,30 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E48">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E49">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2213,30 +2213,30 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E50">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2247,30 +2247,30 @@
         <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B53">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2281,30 +2281,30 @@
         <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E54">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B55">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E55">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2315,30 +2315,30 @@
         <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B57">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E57">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2349,13 +2349,13 @@
         <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58">
-        <v>74</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2369,10 +2369,10 @@
         <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E59">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2386,27 +2386,27 @@
         <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E60">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B61">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61">
-        <v>157</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2417,30 +2417,30 @@
         <v>76</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E62">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B63">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E63">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2451,30 +2451,30 @@
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B65">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2485,30 +2485,30 @@
         <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B67">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2519,30 +2519,30 @@
         <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B69">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2553,30 +2553,30 @@
         <v>88</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B71">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E71">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2587,24 +2587,24 @@
         <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E72">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B73">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73" t="s">
         <v>108</v>
@@ -2621,30 +2621,30 @@
         <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E74">
-        <v>93</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E75">
-        <v>183</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2655,10 +2655,10 @@
         <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76">
         <v>95</v>
@@ -2666,19 +2666,19 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B77">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E77">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2689,30 +2689,30 @@
         <v>97</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B79">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E79">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2723,30 +2723,30 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B81">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E81">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2757,30 +2757,30 @@
         <v>103</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E82">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B83">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2791,30 +2791,30 @@
         <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E84">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B85">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2825,30 +2825,30 @@
         <v>109</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B87">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E87">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2859,30 +2859,30 @@
         <v>112</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E88">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B89">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2893,30 +2893,30 @@
         <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E90">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B91">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E91">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2927,30 +2927,30 @@
         <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E92">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B93">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E93">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2961,30 +2961,30 @@
         <v>120</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E94">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B95">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E95">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2995,30 +2995,30 @@
         <v>123</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E96">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B97">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E97">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -3029,30 +3029,30 @@
         <v>126</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E98">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B99">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="E99">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -3063,30 +3063,30 @@
         <v>129</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="E100">
-        <v>9</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B101">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E101">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -3097,30 +3097,30 @@
         <v>131</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E102">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B103">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E103">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3131,30 +3131,30 @@
         <v>134</v>
       </c>
       <c r="C104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E104">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B105">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E105">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -3165,30 +3165,30 @@
         <v>137</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E106">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B107">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E107">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -3199,30 +3199,30 @@
         <v>140</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E108">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B109">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="E109">
-        <v>142</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -3233,30 +3233,30 @@
         <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E110">
-        <v>17</v>
+        <v>144</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B111">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="E111">
-        <v>144</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3267,30 +3267,30 @@
         <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="E112">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B113">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E113">
-        <v>146</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3301,30 +3301,30 @@
         <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="E114">
-        <v>118</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B115">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E115">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3335,30 +3335,30 @@
         <v>149</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E116">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B117">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E117">
-        <v>151</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3369,30 +3369,30 @@
         <v>152</v>
       </c>
       <c r="C118" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B119">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E119">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3403,30 +3403,30 @@
         <v>158</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E120">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B121">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E121">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -3437,30 +3437,30 @@
         <v>161</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E122">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B123">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E123">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3471,30 +3471,30 @@
         <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E124">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B125">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E125">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3505,30 +3505,30 @@
         <v>169</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E126">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B127">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="E127">
-        <v>170</v>
+        <v>107</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3539,30 +3539,30 @@
         <v>171</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="E128">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B129">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E129">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3573,30 +3573,30 @@
         <v>173</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E130">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B131">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E131">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3607,30 +3607,30 @@
         <v>176</v>
       </c>
       <c r="C132" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E132">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B133">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E133">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3641,30 +3641,30 @@
         <v>179</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E134">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B135">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E135">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
@@ -3675,30 +3675,30 @@
         <v>184</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E136">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B137">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E137">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -3709,30 +3709,30 @@
         <v>187</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E138">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B139">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E139">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3743,30 +3743,30 @@
         <v>190</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E140">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B141">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E141">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -3777,30 +3777,30 @@
         <v>193</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D142" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E142">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B143">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="E143">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
@@ -3811,30 +3811,30 @@
         <v>196</v>
       </c>
       <c r="C144" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="E144">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B145">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E145">
-        <v>197</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3845,30 +3845,30 @@
         <v>198</v>
       </c>
       <c r="C146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>153</v>
+        <v>208</v>
       </c>
       <c r="E146">
-        <v>136</v>
+        <v>199</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B147">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E147">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -3879,30 +3879,30 @@
         <v>200</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E148">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B149">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E149">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -3913,30 +3913,30 @@
         <v>203</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E150">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B151">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E151">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -3947,30 +3947,30 @@
         <v>206</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E152">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B153">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E153">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3981,30 +3981,30 @@
         <v>209</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E154">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B155">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E155">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4015,30 +4015,30 @@
         <v>212</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E156">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B157">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E157">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4049,30 +4049,30 @@
         <v>215</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E158">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B159">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E159">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -4083,13 +4083,13 @@
         <v>218</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E160">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
@@ -4103,10 +4103,10 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E161">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -4120,27 +4120,27 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E162">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B163">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E163">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -4151,13 +4151,13 @@
         <v>223</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E164">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
@@ -4171,27 +4171,27 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="E165">
-        <v>225</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B166">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="E166">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
@@ -4202,30 +4202,30 @@
         <v>226</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="E167">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B168">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E168">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -4236,30 +4236,30 @@
         <v>229</v>
       </c>
       <c r="C169" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E169">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B170">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E170">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -4270,30 +4270,30 @@
         <v>232</v>
       </c>
       <c r="C171" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E171">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B172">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E172">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
@@ -4304,30 +4304,30 @@
         <v>235</v>
       </c>
       <c r="C173" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E173">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B174">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E174">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
@@ -4338,30 +4338,30 @@
         <v>238</v>
       </c>
       <c r="C175" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E175">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B176">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E176">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -4372,30 +4372,30 @@
         <v>241</v>
       </c>
       <c r="C177" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E177">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B178">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E178">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
@@ -4406,30 +4406,30 @@
         <v>244</v>
       </c>
       <c r="C179" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E179">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B180">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E180">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -4440,13 +4440,13 @@
         <v>247</v>
       </c>
       <c r="C181" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E181">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -4460,27 +4460,27 @@
         <v>2</v>
       </c>
       <c r="D182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E182">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B183">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E183">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -4491,24 +4491,24 @@
         <v>251</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E184">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B185">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185" t="s">
         <v>260</v>
@@ -4525,30 +4525,30 @@
         <v>253</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E186">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B187">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>262</v>
+        <v>188</v>
       </c>
       <c r="E187">
-        <v>254</v>
+        <v>177</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -4559,30 +4559,30 @@
         <v>255</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="E188">
-        <v>177</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B189">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E189">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -4593,30 +4593,30 @@
         <v>257</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
       <c r="E190">
-        <v>258</v>
+        <v>136</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B191">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E191">
-        <v>136</v>
+        <v>160</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
@@ -4627,30 +4627,30 @@
         <v>259</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>173</v>
+        <v>268</v>
       </c>
       <c r="E192">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B193">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E193">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -4661,30 +4661,30 @@
         <v>261</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D194" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E194">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B195">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E195">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
@@ -4695,30 +4695,30 @@
         <v>264</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E196">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B197">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E197">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -4729,30 +4729,30 @@
         <v>267</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E198">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B199">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E199">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -4763,30 +4763,30 @@
         <v>270</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E200">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B201">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E201">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
@@ -4797,30 +4797,30 @@
         <v>273</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E202">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B203">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E203">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -4831,30 +4831,30 @@
         <v>276</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E204">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B205">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E205">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -4865,30 +4865,30 @@
         <v>278</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E206">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B207">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E207">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -4899,30 +4899,30 @@
         <v>281</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E208">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B209">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E209">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -4933,30 +4933,30 @@
         <v>284</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E210">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B211">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E211">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -4967,30 +4967,30 @@
         <v>287</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E212">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B213">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E213">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -5001,30 +5001,30 @@
         <v>290</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E214">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B215">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E215">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5035,30 +5035,30 @@
         <v>293</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E216">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B217">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E217">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -5069,30 +5069,30 @@
         <v>296</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E218">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B219">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E219">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -5103,30 +5103,30 @@
         <v>299</v>
       </c>
       <c r="C220" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E220">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B221">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E221">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5137,30 +5137,30 @@
         <v>302</v>
       </c>
       <c r="C222" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E222">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B223">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E223">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -5171,30 +5171,30 @@
         <v>305</v>
       </c>
       <c r="C224" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E224">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B225">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E225">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -5205,30 +5205,30 @@
         <v>308</v>
       </c>
       <c r="C226" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E226">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B227">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E227">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
@@ -5239,30 +5239,30 @@
         <v>311</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E228">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B229">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E229">
-        <v>313</v>
+        <v>286</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
@@ -5273,13 +5273,13 @@
         <v>314</v>
       </c>
       <c r="C230" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="E230">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
@@ -5293,27 +5293,27 @@
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E231">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B232">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C232" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E232">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -5324,29 +5324,12 @@
         <v>317</v>
       </c>
       <c r="C233" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E233">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>324</v>
-      </c>
-      <c r="B234">
-        <v>317</v>
-      </c>
-      <c r="C234" t="s">
-        <v>2</v>
-      </c>
-      <c r="D234" t="s">
-        <v>326</v>
-      </c>
-      <c r="E234">
         <v>319</v>
       </c>
     </row>
